--- a/models/epidemic/parameters.xlsx
+++ b/models/epidemic/parameters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>enabled</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,10 +547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +559,7 @@
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -566,8 +569,11 @@
       <c r="C1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -577,8 +583,11 @@
       <c r="C2">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -588,8 +597,11 @@
       <c r="C3">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -599,8 +611,11 @@
       <c r="C4">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -610,8 +625,11 @@
       <c r="C5">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -621,8 +639,11 @@
       <c r="C6">
         <v>125</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -632,8 +653,11 @@
       <c r="C7">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -643,8 +667,11 @@
       <c r="C8">
         <v>135</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -654,8 +681,11 @@
       <c r="C9">
         <v>140</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -665,8 +695,11 @@
       <c r="C10">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -676,8 +709,11 @@
       <c r="C11">
         <v>150</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -687,8 +723,11 @@
       <c r="C12">
         <v>155</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -698,8 +737,11 @@
       <c r="C13">
         <v>160</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -709,8 +751,11 @@
       <c r="C14">
         <v>165</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -720,8 +765,11 @@
       <c r="C15">
         <v>170</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -731,8 +779,11 @@
       <c r="C16">
         <v>175</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -742,8 +793,11 @@
       <c r="C17">
         <v>180</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -753,8 +807,11 @@
       <c r="C18">
         <v>185</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -764,8 +821,11 @@
       <c r="C19">
         <v>190</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -775,8 +835,11 @@
       <c r="C20">
         <v>195</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -785,6 +848,9 @@
       </c>
       <c r="C21">
         <v>200</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
